--- a/data-fetching/werkzittingen/data_wz8.xlsx
+++ b/data-fetching/werkzittingen/data_wz8.xlsx
@@ -9,7 +9,7 @@
     <sheet name="Sheet0" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Sheet0!$A$2:$AS$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Sheet0!$A$2:$AS$89</definedName>
   </definedNames>
 </workbook>
 </file>
@@ -107,7 +107,7 @@
     <col min="6" max="6" width="20.765625" customWidth="true"/>
     <col min="7" max="7" width="8.6875" customWidth="true"/>
     <col min="8" max="8" width="14.74609375" customWidth="true"/>
-    <col min="9" max="9" width="21.8515625" customWidth="true"/>
+    <col min="9" max="9" width="22.1640625" customWidth="true"/>
     <col min="10" max="10" width="20.03515625" customWidth="true"/>
     <col min="11" max="11" width="20.2109375" customWidth="true"/>
     <col min="12" max="12" width="15.3125" customWidth="true"/>
@@ -8892,31 +8892,7191 @@
         </is>
       </c>
     </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>44282.17680555556</v>
+      </c>
+      <c r="B49" s="1" t="n">
+        <v>44282.194502314815</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>81.245.120.228</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1528.0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H49" s="1" t="n">
+        <v>44282.194511932874</v>
+      </c>
+      <c r="I49" s="2" t="inlineStr">
+        <is>
+          <t>R_110YcaGmE3wzic7</t>
+        </is>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K49" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L49" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M49" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N49" t="n">
+        <v>50.44999694824219</v>
+      </c>
+      <c r="O49" t="n">
+        <v>3.9333038330078125</v>
+      </c>
+      <c r="P49" s="2" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q49" s="2" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="R49" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S49" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="T49" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="U49" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="V49" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="W49" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="X49" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Y49" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z49" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA49" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB49" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC49" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD49" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE49" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF49" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AI49" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AJ49" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AO49" s="2" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="AP49" s="2" t="inlineStr">
+        <is>
+          <t>1,2,3</t>
+        </is>
+      </c>
+      <c r="AQ49" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AR49" s="2" t="inlineStr">
+        <is>
+          <t>beduidende cijfers</t>
+        </is>
+      </c>
+      <c r="AS49" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>44282.30326388889</v>
+      </c>
+      <c r="B50" s="1" t="n">
+        <v>44282.31765046297</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>81.165.75.3</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1243.0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H50" s="1" t="n">
+        <v>44282.317666180556</v>
+      </c>
+      <c r="I50" s="2" t="inlineStr">
+        <is>
+          <t>R_2SIw6jt3869vU1f</t>
+        </is>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K50" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L50" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M50" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N50" t="n">
+        <v>51.319305419921875</v>
+      </c>
+      <c r="O50" t="n">
+        <v>4.852996826171875</v>
+      </c>
+      <c r="P50" s="2" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q50" s="2" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="R50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S50" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="T50" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="U50" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="V50" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W50" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="X50" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="Y50" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z50" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA50" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB50" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC50" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD50" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE50" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AI50" s="2" t="inlineStr">
+        <is>
+          <t>3,6,7</t>
+        </is>
+      </c>
+      <c r="AJ50" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AO50" s="2" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="AP50" s="2" t="inlineStr">
+        <is>
+          <t>1,2,3</t>
+        </is>
+      </c>
+      <c r="AQ50" s="2" t="inlineStr">
+        <is>
+          <t>2,3,4</t>
+        </is>
+      </c>
+      <c r="AR50" s="2" t="inlineStr">
+        <is>
+          <t>overzichtelijk werken (oefening opdelen in stappen)</t>
+        </is>
+      </c>
+      <c r="AS50" s="2" t="inlineStr">
+        <is>
+          <t>1,11</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>44282.3283912037</v>
+      </c>
+      <c r="B51" s="1" t="n">
+        <v>44282.33542824074</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>81.165.64.19</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>608.0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H51" s="1" t="n">
+        <v>44282.33543724537</v>
+      </c>
+      <c r="I51" s="2" t="inlineStr">
+        <is>
+          <t>R_3JkrUlm1NEmQFYs</t>
+        </is>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K51" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L51" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M51" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N51" t="n">
+        <v>51.319305419921875</v>
+      </c>
+      <c r="O51" t="n">
+        <v>4.852996826171875</v>
+      </c>
+      <c r="P51" s="2" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q51" s="2" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="R51" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S51" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="T51" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="U51" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="V51" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W51" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="X51" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Y51" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z51" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA51" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB51" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC51" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD51" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE51" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF51" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AI51" s="2" t="inlineStr">
+        <is>
+          <t>4,8</t>
+        </is>
+      </c>
+      <c r="AJ51" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AO51" s="2" t="inlineStr">
+        <is>
+          <t>1,3</t>
+        </is>
+      </c>
+      <c r="AP51" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AQ51" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AR51" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS51" s="2" t="inlineStr">
+        <is>
+          <t>2,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>44282.3515625</v>
+      </c>
+      <c r="B52" s="1" t="n">
+        <v>44282.36844907407</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>91.176.130.48</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1458.0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H52" s="1" t="n">
+        <v>44282.36845524306</v>
+      </c>
+      <c r="I52" s="2" t="inlineStr">
+        <is>
+          <t>R_1I3LAz0Q0La012k</t>
+        </is>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K52" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L52" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M52" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N52" t="n">
+        <v>50.899993896484375</v>
+      </c>
+      <c r="O52" t="n">
+        <v>4.6407012939453125</v>
+      </c>
+      <c r="P52" s="2" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q52" s="2" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="R52" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S52" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="T52" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U52" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="V52" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="W52" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="X52" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Y52" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z52" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA52" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB52" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC52" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD52" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE52" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF52" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AI52" s="2" t="inlineStr">
+        <is>
+          <t>3,6</t>
+        </is>
+      </c>
+      <c r="AJ52" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AO52" s="2" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="AP52" s="2" t="inlineStr">
+        <is>
+          <t>1,2,3</t>
+        </is>
+      </c>
+      <c r="AQ52" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AR52" s="2" t="inlineStr">
+        <is>
+          <t>Weten wanneer je welke wet mag toepassen</t>
+        </is>
+      </c>
+      <c r="AS52" s="2" t="inlineStr">
+        <is>
+          <t>2,12</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>44282.35560185185</v>
+      </c>
+      <c r="B53" s="1" t="n">
+        <v>44282.36888888889</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>84.195.230.184</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>1147.0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H53" s="1" t="n">
+        <v>44282.36890278935</v>
+      </c>
+      <c r="I53" s="2" t="inlineStr">
+        <is>
+          <t>R_27wHq6xmZEW0cFk</t>
+        </is>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K53" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L53" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M53" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N53" t="n">
+        <v>50.816802978515625</v>
+      </c>
+      <c r="O53" t="n">
+        <v>5.186492919921875</v>
+      </c>
+      <c r="P53" s="2" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q53" s="2" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="R53" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S53" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="T53" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="U53" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="V53" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W53" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X53" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Y53" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z53" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA53" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB53" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC53" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD53" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE53" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF53" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AI53" s="2" t="inlineStr">
+        <is>
+          <t>3,6</t>
+        </is>
+      </c>
+      <c r="AJ53" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AO53" s="2" t="inlineStr">
+        <is>
+          <t>1,2,3</t>
+        </is>
+      </c>
+      <c r="AP53" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="AQ53" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AR53" s="2" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="AS53" s="2" t="inlineStr">
+        <is>
+          <t>3,6</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>44282.39729166667</v>
+      </c>
+      <c r="B54" s="1" t="n">
+        <v>44282.41447916667</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>141.135.17.213</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>1484.0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H54" s="1" t="n">
+        <v>44282.41448688658</v>
+      </c>
+      <c r="I54" s="2" t="inlineStr">
+        <is>
+          <t>R_25FUvD6gu2UL9vZ</t>
+        </is>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K54" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L54" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M54" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N54" t="n">
+        <v>51.24609375</v>
+      </c>
+      <c r="O54" t="n">
+        <v>4.4521026611328125</v>
+      </c>
+      <c r="P54" s="2" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q54" s="2" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="R54" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S54" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="T54" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U54" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="V54" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W54" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X54" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Y54" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z54" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA54" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB54" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC54" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD54" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE54" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF54" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AI54" s="2" t="inlineStr">
+        <is>
+          <t>3,6,8</t>
+        </is>
+      </c>
+      <c r="AJ54" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AO54" s="2" t="inlineStr">
+        <is>
+          <t>1,2,3</t>
+        </is>
+      </c>
+      <c r="AP54" s="2" t="inlineStr">
+        <is>
+          <t>1,2,3</t>
+        </is>
+      </c>
+      <c r="AQ54" s="2" t="inlineStr">
+        <is>
+          <t>2,3,4,5</t>
+        </is>
+      </c>
+      <c r="AR54" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS54" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>44282.440347222226</v>
+      </c>
+      <c r="B55" s="1" t="n">
+        <v>44282.455046296294</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>94.225.230.179</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1270.0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H55" s="1" t="n">
+        <v>44282.455060162036</v>
+      </c>
+      <c r="I55" s="2" t="inlineStr">
+        <is>
+          <t>R_TwwOYTSAixfJ4el</t>
+        </is>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K55" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L55" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M55" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N55" t="n">
+        <v>50.82670593261719</v>
+      </c>
+      <c r="O55" t="n">
+        <v>4.52239990234375</v>
+      </c>
+      <c r="P55" s="2" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q55" s="2" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="R55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S55" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="T55" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="U55" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="V55" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W55" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="X55" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="Y55" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z55" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA55" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB55" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC55" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD55" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE55" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF55" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AI55" s="2" t="inlineStr">
+        <is>
+          <t>3,6,8</t>
+        </is>
+      </c>
+      <c r="AJ55" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AO55" s="2" t="inlineStr">
+        <is>
+          <t>1,2,3</t>
+        </is>
+      </c>
+      <c r="AP55" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AQ55" s="2" t="inlineStr">
+        <is>
+          <t>2,3,4</t>
+        </is>
+      </c>
+      <c r="AR55" s="2" t="inlineStr">
+        <is>
+          <t>goed lezen</t>
+        </is>
+      </c>
+      <c r="AS55" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>44282.59810185185</v>
+      </c>
+      <c r="B56" s="1" t="n">
+        <v>44282.64928240741</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>81.247.103.57</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>4421.0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H56" s="1" t="n">
+        <v>44282.649291898146</v>
+      </c>
+      <c r="I56" s="2" t="inlineStr">
+        <is>
+          <t>R_bvldJy4wmmdVdPr</t>
+        </is>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K56" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L56" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M56" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v>51.2449951171875</v>
+      </c>
+      <c r="O56" t="n">
+        <v>4.83160400390625</v>
+      </c>
+      <c r="P56" s="2" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q56" s="2" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="R56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S56" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="T56" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="U56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V56" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W56" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Y56" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z56" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA56" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB56" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC56" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD56" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE56" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF56" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AI56" s="2" t="inlineStr">
+        <is>
+          <t>3,4,6</t>
+        </is>
+      </c>
+      <c r="AJ56" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AO56" s="2" t="inlineStr">
+        <is>
+          <t>1,2,3</t>
+        </is>
+      </c>
+      <c r="AP56" s="2" t="inlineStr">
+        <is>
+          <t>1,2,3</t>
+        </is>
+      </c>
+      <c r="AQ56" s="2" t="inlineStr">
+        <is>
+          <t>3,4</t>
+        </is>
+      </c>
+      <c r="AR56" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">arbeid niet vergeten, altijd eerst aan wetten denken </t>
+        </is>
+      </c>
+      <c r="AS56" s="2" t="inlineStr">
+        <is>
+          <t>2,5,9,11,12</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>44283.08665509259</v>
+      </c>
+      <c r="B57" s="1" t="n">
+        <v>44283.123460648145</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>109.132.41.99</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>3179.0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H57" s="1" t="n">
+        <v>44283.123467604164</v>
+      </c>
+      <c r="I57" s="2" t="inlineStr">
+        <is>
+          <t>R_22Y53L2ssrqoDJo</t>
+        </is>
+      </c>
+      <c r="J57" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K57" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L57" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M57" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N57" t="n">
+        <v>51.02400207519531</v>
+      </c>
+      <c r="O57" t="n">
+        <v>4.4833984375</v>
+      </c>
+      <c r="P57" s="2" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q57" s="2" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="R57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S57" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="T57" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U57" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="V57" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="W57" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="X57" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="Y57" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z57" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA57" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB57" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC57" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD57" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE57" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AI57" s="2" t="inlineStr">
+        <is>
+          <t>3,8</t>
+        </is>
+      </c>
+      <c r="AJ57" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AO57" s="2" t="inlineStr">
+        <is>
+          <t>1,2,3</t>
+        </is>
+      </c>
+      <c r="AP57" s="2" t="inlineStr">
+        <is>
+          <t>1,2,3</t>
+        </is>
+      </c>
+      <c r="AQ57" s="2" t="inlineStr">
+        <is>
+          <t>2,4</t>
+        </is>
+      </c>
+      <c r="AR57" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS57" s="2" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>44283.114340277774</v>
+      </c>
+      <c r="B58" s="1" t="n">
+        <v>44283.123611111114</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>81.164.136.49</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>801.0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H58" s="1" t="n">
+        <v>44283.123623900465</v>
+      </c>
+      <c r="I58" s="2" t="inlineStr">
+        <is>
+          <t>R_2ypvJIBES0Zhdlp</t>
+        </is>
+      </c>
+      <c r="J58" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K58" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L58" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M58" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N58" t="n">
+        <v>50.87579345703125</v>
+      </c>
+      <c r="O58" t="n">
+        <v>4.70269775390625</v>
+      </c>
+      <c r="P58" s="2" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q58" s="2" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="R58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S58" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="T58" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="U58" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="V58" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="W58" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="X58" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Y58" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z58" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA58" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB58" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC58" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD58" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE58" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF58" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AI58" s="2" t="inlineStr">
+        <is>
+          <t>3,6,8</t>
+        </is>
+      </c>
+      <c r="AJ58" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AO58" s="2" t="inlineStr">
+        <is>
+          <t>1,3</t>
+        </is>
+      </c>
+      <c r="AP58" s="2" t="inlineStr">
+        <is>
+          <t>1,2,3</t>
+        </is>
+      </c>
+      <c r="AQ58" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AR58" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS58" s="2" t="inlineStr">
+        <is>
+          <t>7,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>44283.131631944445</v>
+      </c>
+      <c r="B59" s="1" t="n">
+        <v>44283.16271990741</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>81.82.24.233</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>2686.0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H59" s="1" t="n">
+        <v>44283.16273299768</v>
+      </c>
+      <c r="I59" s="2" t="inlineStr">
+        <is>
+          <t>R_2P0hVofWloMNGQG</t>
+        </is>
+      </c>
+      <c r="J59" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K59" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L59" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M59" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N59" t="n">
+        <v>51.15179443359375</v>
+      </c>
+      <c r="O59" t="n">
+        <v>4.4756927490234375</v>
+      </c>
+      <c r="P59" s="2" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q59" s="2" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="R59" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S59" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="T59" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U59" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="V59" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W59" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="X59" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Y59" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z59" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA59" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB59" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC59" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD59" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE59" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF59" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AI59" s="2" t="inlineStr">
+        <is>
+          <t>3,8</t>
+        </is>
+      </c>
+      <c r="AJ59" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AL59" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AO59" s="2" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="AP59" s="2" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="AQ59" s="2" t="inlineStr">
+        <is>
+          <t>2,3,4</t>
+        </is>
+      </c>
+      <c r="AR59" s="2" t="inlineStr">
+        <is>
+          <t>nog niet per se alles uitrekenen in tussenstappen</t>
+        </is>
+      </c>
+      <c r="AS59" s="2" t="inlineStr">
+        <is>
+          <t>1,6</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>44283.145902777775</v>
+      </c>
+      <c r="B60" s="1" t="n">
+        <v>44283.19106481481</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D60" s="2" t="inlineStr">
+        <is>
+          <t>81.242.124.216</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>3901.0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H60" s="1" t="n">
+        <v>44283.19107291667</v>
+      </c>
+      <c r="I60" s="2" t="inlineStr">
+        <is>
+          <t>R_3MEbaFC72oDWJoM</t>
+        </is>
+      </c>
+      <c r="J60" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K60" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L60" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M60" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>51.16619873046875</v>
+      </c>
+      <c r="O60" t="n">
+        <v>4.448699951171875</v>
+      </c>
+      <c r="P60" s="2" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q60" s="2" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="R60" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S60" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="T60" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="U60" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="V60" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="W60" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="X60" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Y60" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z60" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA60" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB60" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC60" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD60" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE60" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF60" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AI60" s="2" t="inlineStr">
+        <is>
+          <t>3,6</t>
+        </is>
+      </c>
+      <c r="AJ60" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AO60" s="2" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="AP60" s="2" t="inlineStr">
+        <is>
+          <t>1,2,3</t>
+        </is>
+      </c>
+      <c r="AQ60" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AR60" s="2" t="inlineStr">
+        <is>
+          <t>zorgen dat ik vorige themas beter begrijp</t>
+        </is>
+      </c>
+      <c r="AS60" s="2" t="inlineStr">
+        <is>
+          <t>2,4,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>44283.180925925924</v>
+      </c>
+      <c r="B61" s="1" t="n">
+        <v>44283.19164351852</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D61" s="2" t="inlineStr">
+        <is>
+          <t>84.195.49.39</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>925.0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H61" s="1" t="n">
+        <v>44283.19164819444</v>
+      </c>
+      <c r="I61" s="2" t="inlineStr">
+        <is>
+          <t>R_UL0wIgozG8GHI65</t>
+        </is>
+      </c>
+      <c r="J61" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K61" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L61" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M61" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N61" t="n">
+        <v>50.75090026855469</v>
+      </c>
+      <c r="O61" t="n">
+        <v>5.087799072265625</v>
+      </c>
+      <c r="P61" s="2" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q61" s="2" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="R61" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S61" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="T61" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="U61" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="V61" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="W61" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X61" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="Y61" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z61" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA61" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB61" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC61" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD61" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE61" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF61" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AI61" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AJ61" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AL61" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AM61" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AO61" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="AP61" s="2" t="inlineStr">
+        <is>
+          <t>1,2,3</t>
+        </is>
+      </c>
+      <c r="AQ61" s="2" t="inlineStr">
+        <is>
+          <t>2,3,4</t>
+        </is>
+      </c>
+      <c r="AR61" s="2" t="inlineStr">
+        <is>
+          <t>Nakijken welke elementen bruikbaar zijn in de verschillende wetten</t>
+        </is>
+      </c>
+      <c r="AS61" s="2" t="inlineStr">
+        <is>
+          <t>6,7,8,12</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>44283.179872685185</v>
+      </c>
+      <c r="B62" s="1" t="n">
+        <v>44283.20780092593</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D62" s="2" t="inlineStr">
+        <is>
+          <t>94.225.226.56</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>2413.0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H62" s="1" t="n">
+        <v>44283.20781269676</v>
+      </c>
+      <c r="I62" s="2" t="inlineStr">
+        <is>
+          <t>R_1n7ur3UKKVm3MBv</t>
+        </is>
+      </c>
+      <c r="J62" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K62" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L62" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M62" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N62" t="n">
+        <v>50.86039733886719</v>
+      </c>
+      <c r="O62" t="n">
+        <v>4.4998931884765625</v>
+      </c>
+      <c r="P62" s="2" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q62" s="2" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="R62" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S62" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="T62" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="U62" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V62" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="W62" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="X62" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Y62" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z62" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA62" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB62" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC62" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD62" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE62" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF62" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AI62" s="2" t="inlineStr">
+        <is>
+          <t>3,8</t>
+        </is>
+      </c>
+      <c r="AJ62" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AK62" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AL62" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AM62" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AN62" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AO62" s="2" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="AP62" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AQ62" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AR62" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS62" s="2" t="inlineStr">
+        <is>
+          <t>1,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>44283.240891203706</v>
+      </c>
+      <c r="B63" s="1" t="n">
+        <v>44283.262824074074</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D63" s="2" t="inlineStr">
+        <is>
+          <t>84.194.237.43</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>1895.0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H63" s="1" t="n">
+        <v>44283.262838842595</v>
+      </c>
+      <c r="I63" s="2" t="inlineStr">
+        <is>
+          <t>R_5sSN8w5BhTMqK6R</t>
+        </is>
+      </c>
+      <c r="J63" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K63" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L63" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M63" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N63" t="n">
+        <v>51.252197265625</v>
+      </c>
+      <c r="O63" t="n">
+        <v>5.49200439453125</v>
+      </c>
+      <c r="P63" s="2" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q63" s="2" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="R63" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S63" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="T63" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="U63" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="V63" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="W63" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X63" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="Y63" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z63" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA63" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB63" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC63" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD63" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE63" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF63" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AI63" s="2" t="inlineStr">
+        <is>
+          <t>3,6</t>
+        </is>
+      </c>
+      <c r="AJ63" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AK63" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AL63" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AM63" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AO63" s="2" t="inlineStr">
+        <is>
+          <t>1,2,3</t>
+        </is>
+      </c>
+      <c r="AP63" s="2" t="inlineStr">
+        <is>
+          <t>1,2,3</t>
+        </is>
+      </c>
+      <c r="AQ63" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AR63" s="2" t="inlineStr">
+        <is>
+          <t>Behoud impuls toepassen of niet</t>
+        </is>
+      </c>
+      <c r="AS63" s="2" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>44283.26935185185</v>
+      </c>
+      <c r="B64" s="1" t="n">
+        <v>44283.277916666666</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D64" s="2" t="inlineStr">
+        <is>
+          <t>84.195.213.98</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>740.0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H64" s="1" t="n">
+        <v>44283.27792262731</v>
+      </c>
+      <c r="I64" s="2" t="inlineStr">
+        <is>
+          <t>R_3I5HHGTKwQIGaVA</t>
+        </is>
+      </c>
+      <c r="J64" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K64" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L64" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M64" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N64" t="n">
+        <v>51.10310363769531</v>
+      </c>
+      <c r="O64" t="n">
+        <v>5.7888946533203125</v>
+      </c>
+      <c r="P64" s="2" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q64" s="2" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="R64" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S64" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="T64" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="U64" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="V64" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="W64" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="X64" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="Y64" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z64" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA64" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB64" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC64" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD64" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE64" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF64" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AI64" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AJ64" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AK64" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AL64" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AM64" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AN64" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AO64" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AP64" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="AQ64" s="2" t="inlineStr">
+        <is>
+          <t>2,4</t>
+        </is>
+      </c>
+      <c r="AR64" s="2" t="inlineStr">
+        <is>
+          <t>opschrijven welke formule ik gebruik</t>
+        </is>
+      </c>
+      <c r="AS64" s="2" t="inlineStr">
+        <is>
+          <t>5,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>44283.18733796296</v>
+      </c>
+      <c r="B65" s="1" t="n">
+        <v>44283.27898148148</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D65" s="2" t="inlineStr">
+        <is>
+          <t>213.119.20.183</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>7918.0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H65" s="1" t="n">
+        <v>44283.27899601852</v>
+      </c>
+      <c r="I65" s="2" t="inlineStr">
+        <is>
+          <t>R_2QzwWCj7KoZif2y</t>
+        </is>
+      </c>
+      <c r="J65" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K65" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L65" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M65" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N65" t="n">
+        <v>51.05610656738281</v>
+      </c>
+      <c r="O65" t="n">
+        <v>4.1033935546875</v>
+      </c>
+      <c r="P65" s="2" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q65" s="2" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="R65" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S65" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="T65" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U65" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="V65" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W65" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X65" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Y65" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z65" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA65" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB65" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC65" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD65" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE65" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF65" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AI65" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AJ65" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AK65" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AL65" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AM65" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AN65" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AO65" s="2" t="inlineStr">
+        <is>
+          <t>1,2,3</t>
+        </is>
+      </c>
+      <c r="AP65" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="AQ65" s="2" t="inlineStr">
+        <is>
+          <t>2,4</t>
+        </is>
+      </c>
+      <c r="AR65" s="2" t="inlineStr">
+        <is>
+          <t>Opletten dat behouden van impuls enkel geldt zonder externe krachten</t>
+        </is>
+      </c>
+      <c r="AS65" s="2" t="inlineStr">
+        <is>
+          <t>3,11</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>44283.28008101852</v>
+      </c>
+      <c r="B66" s="1" t="n">
+        <v>44283.29383101852</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D66" s="2" t="inlineStr">
+        <is>
+          <t>84.194.149.66</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>1187.0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H66" s="1" t="n">
+        <v>44283.29383559028</v>
+      </c>
+      <c r="I66" s="2" t="inlineStr">
+        <is>
+          <t>R_3EaHMPNI7zid8iz</t>
+        </is>
+      </c>
+      <c r="J66" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K66" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L66" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M66" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N66" t="n">
+        <v>50.816802978515625</v>
+      </c>
+      <c r="O66" t="n">
+        <v>5.186492919921875</v>
+      </c>
+      <c r="P66" s="2" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q66" s="2" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="R66" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S66" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="T66" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U66" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="V66" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W66" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X66" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Y66" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z66" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA66" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB66" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC66" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD66" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE66" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF66" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AI66" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AJ66" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AK66" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AL66" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AM66" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AN66" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AO66" s="2" t="inlineStr">
+        <is>
+          <t>1,2,3</t>
+        </is>
+      </c>
+      <c r="AP66" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AQ66" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AR66" s="2" t="inlineStr">
+        <is>
+          <t>controleren</t>
+        </is>
+      </c>
+      <c r="AS66" s="2" t="inlineStr">
+        <is>
+          <t>2,3,4,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>44283.273460648146</v>
+      </c>
+      <c r="B67" s="1" t="n">
+        <v>44283.31313657408</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D67" s="2" t="inlineStr">
+        <is>
+          <t>94.224.87.76</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>3427.0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H67" s="1" t="n">
+        <v>44283.31314315972</v>
+      </c>
+      <c r="I67" s="2" t="inlineStr">
+        <is>
+          <t>R_1js4CXR81tgmFSf</t>
+        </is>
+      </c>
+      <c r="J67" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K67" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L67" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M67" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N67" t="n">
+        <v>50.92509460449219</v>
+      </c>
+      <c r="O67" t="n">
+        <v>4.4282073974609375</v>
+      </c>
+      <c r="P67" s="2" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q67" s="2" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="R67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S67" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="T67" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="U67" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V67" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X67" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="Y67" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z67" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA67" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB67" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC67" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD67" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE67" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF67" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AI67" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AJ67" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AK67" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AL67" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AM67" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AN67" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AO67" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AP67" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AQ67" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AR67" s="2" t="inlineStr">
+        <is>
+          <t>behoud van impuls bij niet-elastische botsing</t>
+        </is>
+      </c>
+      <c r="AS67" s="2" t="inlineStr">
+        <is>
+          <t>1,2,3,5,6,12</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>44283.35710648148</v>
+      </c>
+      <c r="B68" s="1" t="n">
+        <v>44283.36804398148</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D68" s="2" t="inlineStr">
+        <is>
+          <t>84.196.131.185</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>945.0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H68" s="1" t="n">
+        <v>44283.368051655096</v>
+      </c>
+      <c r="I68" s="2" t="inlineStr">
+        <is>
+          <t>R_22EUfS4lW7MAKSt</t>
+        </is>
+      </c>
+      <c r="J68" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K68" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L68" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M68" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N68" t="n">
+        <v>51.17610168457031</v>
+      </c>
+      <c r="O68" t="n">
+        <v>4.3484039306640625</v>
+      </c>
+      <c r="P68" s="2" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q68" s="2" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="R68" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S68" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="T68" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="U68" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V68" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W68" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X68" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Y68" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z68" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA68" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB68" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC68" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD68" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE68" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF68" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AG68" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AH68" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AI68" s="2" t="inlineStr">
+        <is>
+          <t>3,6</t>
+        </is>
+      </c>
+      <c r="AJ68" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AK68" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AL68" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AM68" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AN68" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AO68" s="2" t="inlineStr">
+        <is>
+          <t>1,3</t>
+        </is>
+      </c>
+      <c r="AP68" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="AQ68" s="2" t="inlineStr">
+        <is>
+          <t>2,4</t>
+        </is>
+      </c>
+      <c r="AR68" s="2" t="inlineStr">
+        <is>
+          <t>combinatie behoud energie en behoud impuls</t>
+        </is>
+      </c>
+      <c r="AS68" s="2" t="inlineStr">
+        <is>
+          <t>2,4,6,11</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>44283.3675</v>
+      </c>
+      <c r="B69" s="1" t="n">
+        <v>44283.37428240741</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D69" s="2" t="inlineStr">
+        <is>
+          <t>84.194.100.161</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>586.0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H69" s="1" t="n">
+        <v>44283.37429193287</v>
+      </c>
+      <c r="I69" s="2" t="inlineStr">
+        <is>
+          <t>R_2b1nUBZ5oPlNtdc</t>
+        </is>
+      </c>
+      <c r="J69" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K69" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L69" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M69" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N69" t="n">
+        <v>50.98649597167969</v>
+      </c>
+      <c r="O69" t="n">
+        <v>4.8296966552734375</v>
+      </c>
+      <c r="P69" s="2" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q69" s="2" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="R69" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S69" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="T69" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U69" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="V69" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W69" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="X69" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Y69" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z69" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA69" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB69" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC69" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD69" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE69" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF69" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AG69" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AH69" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AI69" s="2" t="inlineStr">
+        <is>
+          <t>3,6,8</t>
+        </is>
+      </c>
+      <c r="AJ69" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AK69" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AL69" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AM69" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AN69" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AO69" s="2" t="inlineStr">
+        <is>
+          <t>1,2,3</t>
+        </is>
+      </c>
+      <c r="AP69" s="2" t="inlineStr">
+        <is>
+          <t>1,2,3</t>
+        </is>
+      </c>
+      <c r="AQ69" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AR69" s="2" t="inlineStr">
+        <is>
+          <t>broodje kaas</t>
+        </is>
+      </c>
+      <c r="AS69" s="2" t="inlineStr">
+        <is>
+          <t>8,12</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>44284.07203703704</v>
+      </c>
+      <c r="B70" s="1" t="n">
+        <v>44284.088275462964</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D70" s="2" t="inlineStr">
+        <is>
+          <t>84.195.54.51</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>1402.0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H70" s="1" t="n">
+        <v>44284.088284722224</v>
+      </c>
+      <c r="I70" s="2" t="inlineStr">
+        <is>
+          <t>R_1Qtq4RkakjHcHN3</t>
+        </is>
+      </c>
+      <c r="J70" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K70" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L70" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M70" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N70" t="n">
+        <v>50.8323974609375</v>
+      </c>
+      <c r="O70" t="n">
+        <v>5.033203125</v>
+      </c>
+      <c r="P70" s="2" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q70" s="2" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="R70" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S70" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="T70" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U70" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="V70" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="W70" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="X70" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Y70" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z70" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA70" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB70" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC70" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD70" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE70" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF70" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AG70" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AH70" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AI70" s="2" t="inlineStr">
+        <is>
+          <t>2,4,8</t>
+        </is>
+      </c>
+      <c r="AJ70" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AK70" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AL70" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AM70" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AN70" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AO70" s="2" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="AP70" s="2" t="inlineStr">
+        <is>
+          <t>1,2,3</t>
+        </is>
+      </c>
+      <c r="AQ70" s="2" t="inlineStr">
+        <is>
+          <t>2,3,4,5</t>
+        </is>
+      </c>
+      <c r="AR70" s="2" t="inlineStr">
+        <is>
+          <t>goede tekening maken</t>
+        </is>
+      </c>
+      <c r="AS70" s="2" t="inlineStr">
+        <is>
+          <t>8,12</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>44284.10868055555</v>
+      </c>
+      <c r="B71" s="1" t="n">
+        <v>44284.12290509259</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D71" s="2" t="inlineStr">
+        <is>
+          <t>81.164.132.238</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>1228.0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H71" s="1" t="n">
+        <v>44284.12291657407</v>
+      </c>
+      <c r="I71" s="2" t="inlineStr">
+        <is>
+          <t>R_2SuePHXCuu75VJL</t>
+        </is>
+      </c>
+      <c r="J71" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K71" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L71" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M71" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N71" t="n">
+        <v>50.87579345703125</v>
+      </c>
+      <c r="O71" t="n">
+        <v>4.70269775390625</v>
+      </c>
+      <c r="P71" s="2" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q71" s="2" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="R71" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S71" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="T71" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="U71" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="V71" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="W71" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X71" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Y71" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z71" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA71" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB71" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC71" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD71" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE71" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF71" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AG71" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AH71" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AI71" s="2" t="inlineStr">
+        <is>
+          <t>3,8</t>
+        </is>
+      </c>
+      <c r="AJ71" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AK71" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AL71" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AM71" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AN71" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AO71" s="2" t="inlineStr">
+        <is>
+          <t>1,2,3</t>
+        </is>
+      </c>
+      <c r="AP71" s="2" t="inlineStr">
+        <is>
+          <t>1,2,3</t>
+        </is>
+      </c>
+      <c r="AQ71" s="2" t="inlineStr">
+        <is>
+          <t>2,3,4</t>
+        </is>
+      </c>
+      <c r="AR71" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS71" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>44284.11375</v>
+      </c>
+      <c r="B72" s="1" t="n">
+        <v>44284.15826388889</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D72" s="2" t="inlineStr">
+        <is>
+          <t>134.58.253.20</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>3845.0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H72" s="1" t="n">
+        <v>44284.158274884256</v>
+      </c>
+      <c r="I72" s="2" t="inlineStr">
+        <is>
+          <t>R_1nT6AQuBGlY5Oo6</t>
+        </is>
+      </c>
+      <c r="J72" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K72" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L72" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M72" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N72" t="n">
+        <v>50.87579345703125</v>
+      </c>
+      <c r="O72" t="n">
+        <v>4.70269775390625</v>
+      </c>
+      <c r="P72" s="2" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q72" s="2" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="R72" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S72" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="T72" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U72" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V72" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W72" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="X72" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Y72" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z72" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA72" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB72" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC72" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD72" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE72" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF72" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AG72" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AH72" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AI72" s="2" t="inlineStr">
+        <is>
+          <t>3,5</t>
+        </is>
+      </c>
+      <c r="AJ72" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AK72" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AL72" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AM72" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AN72" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AO72" s="2" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="AP72" s="2" t="inlineStr">
+        <is>
+          <t>1,2,3</t>
+        </is>
+      </c>
+      <c r="AQ72" s="2" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="AR72" s="2" t="inlineStr">
+        <is>
+          <t>behoud van impuls geldt als er geen netto externe kracht op het systeem inwerkt</t>
+        </is>
+      </c>
+      <c r="AS72" s="2" t="inlineStr">
+        <is>
+          <t>3,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>44284.16185185185</v>
+      </c>
+      <c r="B73" s="1" t="n">
+        <v>44284.17797453704</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D73" s="2" t="inlineStr">
+        <is>
+          <t>81.164.120.113</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>1392.0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H73" s="1" t="n">
+        <v>44284.177984166665</v>
+      </c>
+      <c r="I73" s="2" t="inlineStr">
+        <is>
+          <t>R_217locwlsfQ7HFi</t>
+        </is>
+      </c>
+      <c r="J73" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K73" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L73" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M73" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N73" t="n">
+        <v>50.87579345703125</v>
+      </c>
+      <c r="O73" t="n">
+        <v>4.70269775390625</v>
+      </c>
+      <c r="P73" s="2" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q73" s="2" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="R73" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S73" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="T73" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U73" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="V73" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W73" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="X73" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="Y73" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z73" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA73" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB73" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC73" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD73" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE73" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF73" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AG73" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AH73" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AI73" s="2" t="inlineStr">
+        <is>
+          <t>3,8</t>
+        </is>
+      </c>
+      <c r="AJ73" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AK73" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AL73" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AM73" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AN73" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AO73" s="2" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="AP73" s="2" t="inlineStr">
+        <is>
+          <t>1,2,3</t>
+        </is>
+      </c>
+      <c r="AQ73" s="2" t="inlineStr">
+        <is>
+          <t>2,3,4</t>
+        </is>
+      </c>
+      <c r="AR73" s="2" t="inlineStr">
+        <is>
+          <t>alle stappen uitschrijven</t>
+        </is>
+      </c>
+      <c r="AS73" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>44284.19614583333</v>
+      </c>
+      <c r="B74" s="1" t="n">
+        <v>44284.26325231481</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D74" s="2" t="inlineStr">
+        <is>
+          <t>94.224.70.86</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>5797.0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H74" s="1" t="n">
+        <v>44284.26326554398</v>
+      </c>
+      <c r="I74" s="2" t="inlineStr">
+        <is>
+          <t>R_3dQikEd6ycttLI0</t>
+        </is>
+      </c>
+      <c r="J74" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K74" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L74" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M74" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N74" t="n">
+        <v>50.87579345703125</v>
+      </c>
+      <c r="O74" t="n">
+        <v>4.70269775390625</v>
+      </c>
+      <c r="P74" s="2" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q74" s="2" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="R74" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S74" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="T74" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U74" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="V74" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W74" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="X74" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="Y74" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z74" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA74" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB74" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC74" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD74" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE74" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF74" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AG74" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AH74" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AI74" s="2" t="inlineStr">
+        <is>
+          <t>3,6</t>
+        </is>
+      </c>
+      <c r="AJ74" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AK74" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AL74" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AM74" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AN74" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AO74" s="2" t="inlineStr">
+        <is>
+          <t>1,2,3</t>
+        </is>
+      </c>
+      <c r="AP74" s="2" t="inlineStr">
+        <is>
+          <t>1,2,3</t>
+        </is>
+      </c>
+      <c r="AQ74" s="2" t="inlineStr">
+        <is>
+          <t>2,3,4</t>
+        </is>
+      </c>
+      <c r="AR74" s="2" t="inlineStr">
+        <is>
+          <t>niet te snel willen werken</t>
+        </is>
+      </c>
+      <c r="AS74" s="2" t="inlineStr">
+        <is>
+          <t>1,7</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>44284.289247685185</v>
+      </c>
+      <c r="B75" s="1" t="n">
+        <v>44284.30150462963</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D75" s="2" t="inlineStr">
+        <is>
+          <t>81.164.142.18</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="F75" t="n">
+        <v>1059.0</v>
+      </c>
+      <c r="G75" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H75" s="1" t="n">
+        <v>44284.30151346065</v>
+      </c>
+      <c r="I75" s="2" t="inlineStr">
+        <is>
+          <t>R_1rHdRevy0KJgRof</t>
+        </is>
+      </c>
+      <c r="J75" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K75" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L75" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M75" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N75" t="n">
+        <v>50.87579345703125</v>
+      </c>
+      <c r="O75" t="n">
+        <v>4.70269775390625</v>
+      </c>
+      <c r="P75" s="2" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q75" s="2" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="R75" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S75" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="T75" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="U75" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="V75" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W75" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X75" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Y75" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z75" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA75" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB75" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC75" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD75" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE75" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF75" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AG75" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AH75" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AI75" s="2" t="inlineStr">
+        <is>
+          <t>3,6,8</t>
+        </is>
+      </c>
+      <c r="AJ75" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AK75" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AL75" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AM75" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AN75" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AO75" s="2" t="inlineStr">
+        <is>
+          <t>1,2,3</t>
+        </is>
+      </c>
+      <c r="AP75" s="2" t="inlineStr">
+        <is>
+          <t>1,2,3</t>
+        </is>
+      </c>
+      <c r="AQ75" s="2" t="inlineStr">
+        <is>
+          <t>2,3,4,5</t>
+        </is>
+      </c>
+      <c r="AR75" s="2" t="inlineStr">
+        <is>
+          <t>Behoud van energie toepassen</t>
+        </is>
+      </c>
+      <c r="AS75" s="2" t="inlineStr">
+        <is>
+          <t>1,3</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>44284.28192129629</v>
+      </c>
+      <c r="B76" s="1" t="n">
+        <v>44284.61956018519</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D76" s="2" t="inlineStr">
+        <is>
+          <t>84.198.210.205</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="F76" t="n">
+        <v>29172.0</v>
+      </c>
+      <c r="G76" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H76" s="1" t="n">
+        <v>44284.619576689816</v>
+      </c>
+      <c r="I76" s="2" t="inlineStr">
+        <is>
+          <t>R_3fuGMxYB0t2dzYb</t>
+        </is>
+      </c>
+      <c r="J76" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K76" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L76" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M76" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>50.86549377441406</v>
+      </c>
+      <c r="O76" t="n">
+        <v>4.6891021728515625</v>
+      </c>
+      <c r="P76" s="2" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q76" s="2" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="R76" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S76" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="T76" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="U76" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V76" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W76" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X76" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="Y76" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z76" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA76" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB76" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC76" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD76" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE76" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF76" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AG76" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AH76" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AI76" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AJ76" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AK76" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AL76" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AM76" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AN76" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AO76" s="2" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="AP76" s="2" t="inlineStr">
+        <is>
+          <t>1,2,3</t>
+        </is>
+      </c>
+      <c r="AQ76" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AR76" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS76" s="2" t="inlineStr">
+        <is>
+          <t>1,10,11</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>44284.52799768518</v>
+      </c>
+      <c r="B77" s="1" t="n">
+        <v>44284.64975694445</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D77" s="2" t="inlineStr">
+        <is>
+          <t>81.164.140.29</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="F77" t="n">
+        <v>10520.0</v>
+      </c>
+      <c r="G77" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H77" s="1" t="n">
+        <v>44284.64976663194</v>
+      </c>
+      <c r="I77" s="2" t="inlineStr">
+        <is>
+          <t>R_3CTJKgyZspc5LpT</t>
+        </is>
+      </c>
+      <c r="J77" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K77" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L77" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M77" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>50.87579345703125</v>
+      </c>
+      <c r="O77" t="n">
+        <v>4.70269775390625</v>
+      </c>
+      <c r="P77" s="2" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q77" s="2" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="R77" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S77" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="T77" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="U77" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="V77" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W77" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="X77" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Y77" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z77" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA77" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB77" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC77" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD77" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE77" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF77" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AG77" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AH77" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AI77" s="2" t="inlineStr">
+        <is>
+          <t>3,8</t>
+        </is>
+      </c>
+      <c r="AJ77" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AK77" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AL77" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AM77" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AN77" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AO77" s="2" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="AP77" s="2" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="AQ77" s="2" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="AR77" s="2" t="inlineStr">
+        <is>
+          <t>bewust nadenken over welke wetten en formules ik toepas, expliciet vermelden</t>
+        </is>
+      </c>
+      <c r="AS77" s="2" t="inlineStr">
+        <is>
+          <t>1,12</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>44284.99013888889</v>
+      </c>
+      <c r="B78" s="1" t="n">
+        <v>44285.01707175926</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D78" s="2" t="inlineStr">
+        <is>
+          <t>84.193.117.24</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="F78" t="n">
+        <v>2326.0</v>
+      </c>
+      <c r="G78" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H78" s="1" t="n">
+        <v>44285.017080081016</v>
+      </c>
+      <c r="I78" s="2" t="inlineStr">
+        <is>
+          <t>R_2E6j1FL1zIzNb6a</t>
+        </is>
+      </c>
+      <c r="J78" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K78" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L78" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M78" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>50.93499755859375</v>
+      </c>
+      <c r="O78" t="n">
+        <v>5.3372039794921875</v>
+      </c>
+      <c r="P78" s="2" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q78" s="2" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="R78" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S78" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="T78" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="U78" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="V78" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W78" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="X78" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Y78" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z78" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA78" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB78" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC78" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD78" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE78" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF78" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AG78" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AH78" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AI78" s="2" t="inlineStr">
+        <is>
+          <t>3,8</t>
+        </is>
+      </c>
+      <c r="AJ78" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AK78" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AL78" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AM78" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AN78" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AO78" s="2" t="inlineStr">
+        <is>
+          <t>1,2,3</t>
+        </is>
+      </c>
+      <c r="AP78" s="2" t="inlineStr">
+        <is>
+          <t>1,2,3</t>
+        </is>
+      </c>
+      <c r="AQ78" s="2" t="inlineStr">
+        <is>
+          <t>2,3,4</t>
+        </is>
+      </c>
+      <c r="AR78" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS78" s="2" t="inlineStr">
+        <is>
+          <t>10,11</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>44285.142488425925</v>
+      </c>
+      <c r="B79" s="1" t="n">
+        <v>44285.159895833334</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D79" s="2" t="inlineStr">
+        <is>
+          <t>134.58.253.20</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="F79" t="n">
+        <v>1503.0</v>
+      </c>
+      <c r="G79" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H79" s="1" t="n">
+        <v>44285.159903148146</v>
+      </c>
+      <c r="I79" s="2" t="inlineStr">
+        <is>
+          <t>R_2R1GmrQ9GQ82crK</t>
+        </is>
+      </c>
+      <c r="J79" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K79" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L79" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M79" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N79" t="n">
+        <v>50.87579345703125</v>
+      </c>
+      <c r="O79" t="n">
+        <v>4.70269775390625</v>
+      </c>
+      <c r="P79" s="2" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q79" s="2" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="R79" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S79" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="T79" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U79" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="V79" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W79" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X79" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="Y79" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z79" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA79" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB79" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC79" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD79" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE79" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF79" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AG79" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AH79" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AI79" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AJ79" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AK79" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AL79" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AM79" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AN79" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AO79" s="2" t="inlineStr">
+        <is>
+          <t>1,2,3</t>
+        </is>
+      </c>
+      <c r="AP79" s="2" t="inlineStr">
+        <is>
+          <t>1,2,3</t>
+        </is>
+      </c>
+      <c r="AQ79" s="2" t="inlineStr">
+        <is>
+          <t>2,3,4</t>
+        </is>
+      </c>
+      <c r="AR79" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS79" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>44285.15796296296</v>
+      </c>
+      <c r="B80" s="1" t="n">
+        <v>44285.173483796294</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D80" s="2" t="inlineStr">
+        <is>
+          <t>141.135.117.3</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="F80" t="n">
+        <v>1341.0</v>
+      </c>
+      <c r="G80" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H80" s="1" t="n">
+        <v>44285.173493159724</v>
+      </c>
+      <c r="I80" s="2" t="inlineStr">
+        <is>
+          <t>R_r1tgQShR5NqSiYh</t>
+        </is>
+      </c>
+      <c r="J80" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K80" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L80" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M80" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N80" t="n">
+        <v>50.87579345703125</v>
+      </c>
+      <c r="O80" t="n">
+        <v>4.70269775390625</v>
+      </c>
+      <c r="P80" s="2" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q80" s="2" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="R80" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S80" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="T80" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="U80" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V80" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="W80" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="X80" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="Y80" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z80" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA80" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB80" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC80" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD80" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE80" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF80" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AG80" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AH80" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AI80" s="2" t="inlineStr">
+        <is>
+          <t>3,6,8</t>
+        </is>
+      </c>
+      <c r="AJ80" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AK80" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AL80" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AM80" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AN80" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AO80" s="2" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="AP80" s="2" t="inlineStr">
+        <is>
+          <t>1,2,3</t>
+        </is>
+      </c>
+      <c r="AQ80" s="2" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="AR80" s="2" t="inlineStr">
+        <is>
+          <t>nog beter nadenken over systemen</t>
+        </is>
+      </c>
+      <c r="AS80" s="2" t="inlineStr">
+        <is>
+          <t>7,9,12</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>44282.299212962964</v>
+      </c>
+      <c r="B81" s="1" t="n">
+        <v>44285.30849537037</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D81" s="2" t="inlineStr">
+        <is>
+          <t>81.164.197.196</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="F81" t="n">
+        <v>260002.0</v>
+      </c>
+      <c r="G81" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H81" s="1" t="n">
+        <v>44285.3085100463</v>
+      </c>
+      <c r="I81" s="2" t="inlineStr">
+        <is>
+          <t>R_3m8FIoNgjSNlacT</t>
+        </is>
+      </c>
+      <c r="J81" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K81" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L81" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M81" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N81" t="n">
+        <v>50.87579345703125</v>
+      </c>
+      <c r="O81" t="n">
+        <v>4.70269775390625</v>
+      </c>
+      <c r="P81" s="2" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q81" s="2" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="R81" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S81" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="T81" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="U81" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="V81" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="W81" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="X81" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="Y81" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z81" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA81" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB81" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC81" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD81" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE81" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF81" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AG81" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AH81" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AI81" s="2" t="inlineStr">
+        <is>
+          <t>3,6,8</t>
+        </is>
+      </c>
+      <c r="AJ81" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AK81" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AL81" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AM81" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AN81" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AO81" s="2" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="AP81" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AQ81" s="2" t="inlineStr">
+        <is>
+          <t>2,3,4</t>
+        </is>
+      </c>
+      <c r="AR81" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS81" s="2" t="inlineStr">
+        <is>
+          <t>1,2,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>44286.00962962963</v>
+      </c>
+      <c r="B82" s="1" t="n">
+        <v>44286.02644675926</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D82" s="2" t="inlineStr">
+        <is>
+          <t>84.199.148.91</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="F82" t="n">
+        <v>1453.0</v>
+      </c>
+      <c r="G82" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H82" s="1" t="n">
+        <v>44286.02646217593</v>
+      </c>
+      <c r="I82" s="2" t="inlineStr">
+        <is>
+          <t>R_2WwGjrXteG0pU9c</t>
+        </is>
+      </c>
+      <c r="J82" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K82" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L82" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M82" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>50.87579345703125</v>
+      </c>
+      <c r="O82" t="n">
+        <v>4.70269775390625</v>
+      </c>
+      <c r="P82" s="2" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q82" s="2" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="R82" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S82" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="T82" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="U82" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V82" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W82" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X82" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Y82" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z82" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA82" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB82" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC82" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD82" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE82" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF82" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AG82" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AH82" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AI82" s="2" t="inlineStr">
+        <is>
+          <t>3,6</t>
+        </is>
+      </c>
+      <c r="AJ82" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AK82" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AL82" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AM82" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AN82" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AO82" s="2" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="AP82" s="2" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="AQ82" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AR82" s="2" t="inlineStr">
+        <is>
+          <t>Behoud van energie herinneren om te gebruiken</t>
+        </is>
+      </c>
+      <c r="AS82" s="2" t="inlineStr">
+        <is>
+          <t>2,4</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>44286.10355324074</v>
+      </c>
+      <c r="B83" s="1" t="n">
+        <v>44286.11751157408</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D83" s="2" t="inlineStr">
+        <is>
+          <t>81.164.42.111</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="F83" t="n">
+        <v>1206.0</v>
+      </c>
+      <c r="G83" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H83" s="1" t="n">
+        <v>44286.11752361111</v>
+      </c>
+      <c r="I83" s="2" t="inlineStr">
+        <is>
+          <t>R_Aj2XYSb1jSl5WRb</t>
+        </is>
+      </c>
+      <c r="J83" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K83" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L83" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M83" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>50.87579345703125</v>
+      </c>
+      <c r="O83" t="n">
+        <v>4.70269775390625</v>
+      </c>
+      <c r="P83" s="2" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q83" s="2" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="R83" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S83" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="T83" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U83" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="V83" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="W83" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="X83" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="Y83" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z83" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA83" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB83" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC83" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD83" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE83" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF83" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AG83" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AH83" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AI83" s="2" t="inlineStr">
+        <is>
+          <t>3,6,8</t>
+        </is>
+      </c>
+      <c r="AJ83" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AK83" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AL83" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AM83" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AN83" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AO83" s="2" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="AP83" s="2" t="inlineStr">
+        <is>
+          <t>1,2,3</t>
+        </is>
+      </c>
+      <c r="AQ83" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AR83" s="2" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="AS83" s="2" t="inlineStr">
+        <is>
+          <t>6,7</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>44287.17304398148</v>
+      </c>
+      <c r="B84" s="1" t="n">
+        <v>44287.18917824074</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D84" s="2" t="inlineStr">
+        <is>
+          <t>84.195.60.115</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="F84" t="n">
+        <v>1393.0</v>
+      </c>
+      <c r="G84" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H84" s="1" t="n">
+        <v>44287.18918368056</v>
+      </c>
+      <c r="I84" s="2" t="inlineStr">
+        <is>
+          <t>R_2bIhkQGs9mbeHAv</t>
+        </is>
+      </c>
+      <c r="J84" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K84" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L84" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M84" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N84" t="n">
+        <v>50.8323974609375</v>
+      </c>
+      <c r="O84" t="n">
+        <v>5.033203125</v>
+      </c>
+      <c r="P84" s="2" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q84" s="2" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="R84" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S84" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="T84" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U84" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="V84" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="W84" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="X84" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="Y84" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z84" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA84" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB84" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC84" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD84" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE84" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF84" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AG84" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AH84" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AI84" s="2" t="inlineStr">
+        <is>
+          <t>3,8</t>
+        </is>
+      </c>
+      <c r="AJ84" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AK84" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AL84" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AM84" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AN84" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AO84" s="2" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="AP84" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AQ84" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AR84" s="2" t="inlineStr">
+        <is>
+          <t>Behoud van energie juist toepassen.</t>
+        </is>
+      </c>
+      <c r="AS84" s="2" t="inlineStr">
+        <is>
+          <t>4,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>44287.17471064815</v>
+      </c>
+      <c r="B85" s="1" t="n">
+        <v>44287.201736111114</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D85" s="2" t="inlineStr">
+        <is>
+          <t>195.130.156.243</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="F85" t="n">
+        <v>2335.0</v>
+      </c>
+      <c r="G85" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H85" s="1" t="n">
+        <v>44287.201750810185</v>
+      </c>
+      <c r="I85" s="2" t="inlineStr">
+        <is>
+          <t>R_W3assJcbcgQ337b</t>
+        </is>
+      </c>
+      <c r="J85" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K85" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L85" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M85" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N85" t="n">
+        <v>50.86549377441406</v>
+      </c>
+      <c r="O85" t="n">
+        <v>4.6891021728515625</v>
+      </c>
+      <c r="P85" s="2" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q85" s="2" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="R85" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S85" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="T85" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U85" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="V85" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W85" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="X85" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="Y85" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z85" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA85" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB85" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC85" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD85" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE85" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF85" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AG85" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AH85" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AI85" s="2" t="inlineStr">
+        <is>
+          <t>3,5</t>
+        </is>
+      </c>
+      <c r="AJ85" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AK85" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AL85" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AM85" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AN85" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AO85" s="2" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="AP85" s="2" t="inlineStr">
+        <is>
+          <t>1,2,3</t>
+        </is>
+      </c>
+      <c r="AQ85" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AR85" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AS85" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>44287.24046296296</v>
+      </c>
+      <c r="B86" s="1" t="n">
+        <v>44287.2728125</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D86" s="2" t="inlineStr">
+        <is>
+          <t>141.135.127.70</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="F86" t="n">
+        <v>2794.0</v>
+      </c>
+      <c r="G86" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H86" s="1" t="n">
+        <v>44287.272820370374</v>
+      </c>
+      <c r="I86" s="2" t="inlineStr">
+        <is>
+          <t>R_1jU4DG8V5BNkc5I</t>
+        </is>
+      </c>
+      <c r="J86" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K86" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L86" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M86" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N86" t="n">
+        <v>50.87579345703125</v>
+      </c>
+      <c r="O86" t="n">
+        <v>4.70269775390625</v>
+      </c>
+      <c r="P86" s="2" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q86" s="2" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="R86" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S86" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="T86" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="U86" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="V86" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W86" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="X86" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Y86" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z86" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA86" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB86" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC86" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD86" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE86" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF86" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AG86" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AH86" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AI86" s="2" t="inlineStr">
+        <is>
+          <t>3,5,8</t>
+        </is>
+      </c>
+      <c r="AJ86" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AK86" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AL86" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AM86" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AN86" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AO86" s="2" t="inlineStr">
+        <is>
+          <t>1,2,3</t>
+        </is>
+      </c>
+      <c r="AP86" s="2" t="inlineStr">
+        <is>
+          <t>1,2,3</t>
+        </is>
+      </c>
+      <c r="AQ86" s="2" t="inlineStr">
+        <is>
+          <t>2,3,4,5</t>
+        </is>
+      </c>
+      <c r="AR86" s="2" t="inlineStr">
+        <is>
+          <t>formularium meer gebruiken</t>
+        </is>
+      </c>
+      <c r="AS86" s="2" t="inlineStr">
+        <is>
+          <t>3,6,9</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>44287.31123842593</v>
+      </c>
+      <c r="B87" s="1" t="n">
+        <v>44287.31359953704</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D87" s="2" t="inlineStr">
+        <is>
+          <t>81.83.172.124</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="F87" t="n">
+        <v>203.0</v>
+      </c>
+      <c r="G87" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H87" s="1" t="n">
+        <v>44287.31360916667</v>
+      </c>
+      <c r="I87" s="2" t="inlineStr">
+        <is>
+          <t>R_3EcccpIGSoflmw9</t>
+        </is>
+      </c>
+      <c r="J87" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K87" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L87" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M87" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N87" t="n">
+        <v>51.28770446777344</v>
+      </c>
+      <c r="O87" t="n">
+        <v>4.4949951171875</v>
+      </c>
+      <c r="P87" s="2" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q87" s="2" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="R87" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S87" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="T87" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U87" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V87" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="W87" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="X87" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="Y87" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z87" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA87" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB87" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC87" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD87" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE87" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF87" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AG87" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AH87" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AI87" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AJ87" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AK87" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AL87" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AM87" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AN87" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AO87" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AP87" s="2" t="inlineStr">
+        <is>
+          <t>1,2,3</t>
+        </is>
+      </c>
+      <c r="AQ87" s="2" t="inlineStr">
+        <is>
+          <t>2,4</t>
+        </is>
+      </c>
+      <c r="AR87" s="2" t="inlineStr">
+        <is>
+          <t>ordelijk werken</t>
+        </is>
+      </c>
+      <c r="AS87" s="2" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>44287.300462962965</v>
+      </c>
+      <c r="B88" s="1" t="n">
+        <v>44287.36173611111</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D88" s="2" t="inlineStr">
+        <is>
+          <t>94.226.244.202</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="F88" t="n">
+        <v>5294.0</v>
+      </c>
+      <c r="G88" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H88" s="1" t="n">
+        <v>44287.36174369213</v>
+      </c>
+      <c r="I88" s="2" t="inlineStr">
+        <is>
+          <t>R_RjYvrB1956LKc7f</t>
+        </is>
+      </c>
+      <c r="J88" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K88" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L88" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M88" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N88" t="n">
+        <v>51.319305419921875</v>
+      </c>
+      <c r="O88" t="n">
+        <v>4.852996826171875</v>
+      </c>
+      <c r="P88" s="2" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="Q88" s="2" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="R88" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S88" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="T88" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U88" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="V88" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W88" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X88" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="Y88" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z88" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA88" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB88" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AC88" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AD88" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AE88" s="2" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AF88" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AG88" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AH88" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AI88" s="2" t="inlineStr">
+        <is>
+          <t>3,8</t>
+        </is>
+      </c>
+      <c r="AJ88" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AK88" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AL88" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AM88" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AN88" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AO88" s="2" t="inlineStr">
+        <is>
+          <t>1,2,3</t>
+        </is>
+      </c>
+      <c r="AP88" s="2" t="inlineStr">
+        <is>
+          <t>1,2,3</t>
+        </is>
+      </c>
+      <c r="AQ88" s="2" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="AR88" s="2" t="inlineStr">
+        <is>
+          <t>duidelijke tekeningen maken van elke situatie</t>
+        </is>
+      </c>
+      <c r="AS88" s="2" t="inlineStr">
+        <is>
+          <t>2,12</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:AS49"/>
+  <autoFilter ref="A2:AS89"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <ignoredErrors>
-    <ignoredError sqref="D1:D48" numberStoredAsText="true"/>
-    <ignoredError sqref="I1:I48" numberStoredAsText="true"/>
-    <ignoredError sqref="J1:J48" numberStoredAsText="true"/>
-    <ignoredError sqref="K1:K48" numberStoredAsText="true"/>
-    <ignoredError sqref="L1:L48" numberStoredAsText="true"/>
-    <ignoredError sqref="M1:M48" numberStoredAsText="true"/>
-    <ignoredError sqref="P1:P48" numberStoredAsText="true"/>
-    <ignoredError sqref="Q1:Q48" numberStoredAsText="true"/>
-    <ignoredError sqref="Y1:Y48" numberStoredAsText="true"/>
-    <ignoredError sqref="Z1:Z48" numberStoredAsText="true"/>
-    <ignoredError sqref="AA1:AA48" numberStoredAsText="true"/>
-    <ignoredError sqref="AB1:AB48" numberStoredAsText="true"/>
-    <ignoredError sqref="AC1:AC48" numberStoredAsText="true"/>
-    <ignoredError sqref="AD1:AD48" numberStoredAsText="true"/>
-    <ignoredError sqref="AE1:AE48" numberStoredAsText="true"/>
-    <ignoredError sqref="AI1:AI48" numberStoredAsText="true"/>
-    <ignoredError sqref="AO1:AO48" numberStoredAsText="true"/>
-    <ignoredError sqref="AP1:AP48" numberStoredAsText="true"/>
-    <ignoredError sqref="AQ1:AQ48" numberStoredAsText="true"/>
-    <ignoredError sqref="AR1:AR48" numberStoredAsText="true"/>
-    <ignoredError sqref="AS1:AS48" numberStoredAsText="true"/>
+    <ignoredError sqref="D1:D88" numberStoredAsText="true"/>
+    <ignoredError sqref="I1:I88" numberStoredAsText="true"/>
+    <ignoredError sqref="J1:J88" numberStoredAsText="true"/>
+    <ignoredError sqref="K1:K88" numberStoredAsText="true"/>
+    <ignoredError sqref="L1:L88" numberStoredAsText="true"/>
+    <ignoredError sqref="M1:M88" numberStoredAsText="true"/>
+    <ignoredError sqref="P1:P88" numberStoredAsText="true"/>
+    <ignoredError sqref="Q1:Q88" numberStoredAsText="true"/>
+    <ignoredError sqref="Y1:Y88" numberStoredAsText="true"/>
+    <ignoredError sqref="Z1:Z88" numberStoredAsText="true"/>
+    <ignoredError sqref="AA1:AA88" numberStoredAsText="true"/>
+    <ignoredError sqref="AB1:AB88" numberStoredAsText="true"/>
+    <ignoredError sqref="AC1:AC88" numberStoredAsText="true"/>
+    <ignoredError sqref="AD1:AD88" numberStoredAsText="true"/>
+    <ignoredError sqref="AE1:AE88" numberStoredAsText="true"/>
+    <ignoredError sqref="AI1:AI88" numberStoredAsText="true"/>
+    <ignoredError sqref="AO1:AO88" numberStoredAsText="true"/>
+    <ignoredError sqref="AP1:AP88" numberStoredAsText="true"/>
+    <ignoredError sqref="AQ1:AQ88" numberStoredAsText="true"/>
+    <ignoredError sqref="AR1:AR88" numberStoredAsText="true"/>
+    <ignoredError sqref="AS1:AS88" numberStoredAsText="true"/>
   </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
